--- a/ForegroundJobScheduler/results/online results/summary dynamic (windows,granularity) post adj.xlsx
+++ b/ForegroundJobScheduler/results/online results/summary dynamic (windows,granularity) post adj.xlsx
@@ -35,7 +35,7 @@
     <t>BinNum</t>
   </si>
   <si>
-    <t>Training Size</t>
+    <t>Training.Size</t>
   </si>
   <si>
     <t>Update.Freq</t>
@@ -197,11 +197,21 @@
       <c r="I2" t="n">
         <v>36.0</v>
       </c>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
+      <c r="J2" t="n">
+        <v>0.6183652940637246</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.49282215989763584</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.7624149991765361</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.8640776699029126</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.7148906993627491</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -231,11 +241,21 @@
       <c r="I3" t="n">
         <v>36.0</v>
       </c>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
+      <c r="J3" t="n">
+        <v>0.6183652940637246</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.49282215989763584</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.7624149991765361</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.8640776699029126</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.7148906993627491</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -245,7 +265,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
@@ -254,7 +274,7 @@
         <v>12.0</v>
       </c>
       <c r="F4" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -265,11 +285,21 @@
       <c r="I4" t="n">
         <v>36.0</v>
       </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
+      <c r="J4" t="n">
+        <v>0.5890328212205322</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.45209588024386055</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.5624452964383255</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.608841902931283</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.7390811117413499</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -279,7 +309,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
@@ -288,7 +318,7 @@
         <v>12.0</v>
       </c>
       <c r="F5" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -299,11 +329,21 @@
       <c r="I5" t="n">
         <v>36.0</v>
       </c>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
+      <c r="J5" t="n">
+        <v>0.5890328212205322</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.45209588024386055</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.5624452964383255</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.608841902931283</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.7390811117413499</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -316,10 +356,10 @@
         <v>0.01</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E6" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F6" t="n">
         <v>100.0</v>
@@ -331,13 +371,23 @@
         <v>2000.0</v>
       </c>
       <c r="I6" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
+        <v>36.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.6186425397125338</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5071442654836678</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.8011315996906144</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.9404761904761905</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.7930258033106135</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -350,10 +400,10 @@
         <v>0.01</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E7" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F7" t="n">
         <v>100.0</v>
@@ -365,13 +415,23 @@
         <v>4000.0</v>
       </c>
       <c r="I7" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
+        <v>36.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.6186425397125338</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.5071442654836678</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8011315996906144</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.9404761904761905</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.7930258033106135</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -381,16 +441,16 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E8" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F8" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>
@@ -399,13 +459,23 @@
         <v>2000.0</v>
       </c>
       <c r="I8" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
+        <v>36.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.6125516459832303</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.4756394757126996</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.6005092459006902</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.5909090909090909</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.8289304949987176</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -415,16 +485,16 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E9" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F9" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -433,13 +503,23 @@
         <v>4000.0</v>
       </c>
       <c r="I9" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
+        <v>36.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.6125516459832303</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4756394757126996</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.6005092459006902</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.5909090909090909</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.8289304949987176</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -452,10 +532,10 @@
         <v>0.01</v>
       </c>
       <c r="D10" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E10" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F10" t="n">
         <v>100.0</v>
@@ -467,13 +547,23 @@
         <v>2000.0</v>
       </c>
       <c r="I10" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
+        <v>108.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.4909500044967308</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.3262178526420911</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.5440194280954945</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7875</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.890632603406326</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -486,10 +576,10 @@
         <v>0.01</v>
       </c>
       <c r="D11" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E11" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F11" t="n">
         <v>100.0</v>
@@ -501,13 +591,23 @@
         <v>4000.0</v>
       </c>
       <c r="I11" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
+        <v>108.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.4909500044967308</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3262178526420911</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.5440194280954945</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.7875</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.890632603406326</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -517,16 +617,16 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D12" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E12" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F12" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
@@ -535,13 +635,23 @@
         <v>2000.0</v>
       </c>
       <c r="I12" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
+        <v>108.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.43085321230472173</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.2591103698593979</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.353700188388443</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.4272863568215892</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.9113061705751343</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -551,16 +661,16 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D13" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E13" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F13" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -569,13 +679,23 @@
         <v>4000.0</v>
       </c>
       <c r="I13" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
+        <v>108.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.43085321230472173</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.2591103698593979</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.353700188388443</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.4272863568215892</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.9113061705751343</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -605,11 +725,21 @@
       <c r="I14" t="n">
         <v>108.0</v>
       </c>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
+      <c r="J14" t="n">
+        <v>0.5127740156381667</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.34506887421553234</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.5698491771483958</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.8051948051948052</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.9188860513194698</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -639,11 +769,21 @@
       <c r="I15" t="n">
         <v>108.0</v>
       </c>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
+      <c r="J15" t="n">
+        <v>0.5127740156381667</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.34506887421553234</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.5698491771483958</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.8051948051948052</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.9188860513194698</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -653,7 +793,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D16" t="n">
         <v>3.125</v>
@@ -662,7 +802,7 @@
         <v>36.0</v>
       </c>
       <c r="F16" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G16" t="n">
         <v>0.0</v>
@@ -673,11 +813,21 @@
       <c r="I16" t="n">
         <v>108.0</v>
       </c>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
+      <c r="J16" t="n">
+        <v>0.45733230459864743</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.2842922366073985</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.38559047078296116</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.4489402697495183</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.9362549800796812</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -687,7 +837,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D17" t="n">
         <v>3.125</v>
@@ -696,7 +846,7 @@
         <v>36.0</v>
       </c>
       <c r="F17" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G17" t="n">
         <v>0.0</v>
@@ -707,11 +857,21 @@
       <c r="I17" t="n">
         <v>108.0</v>
       </c>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
+      <c r="J17" t="n">
+        <v>0.45733230459864743</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.2842922366073985</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.38559047078296116</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.4489402697495183</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.9362549800796812</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -721,7 +881,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D18" t="n">
         <v>0.0</v>
@@ -730,7 +890,7 @@
         <v>12.0</v>
       </c>
       <c r="F18" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G18" t="n">
         <v>0.0</v>
@@ -755,7 +915,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D19" t="n">
         <v>0.0</v>
@@ -764,7 +924,7 @@
         <v>12.0</v>
       </c>
       <c r="F19" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>
@@ -857,16 +1017,16 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E22" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F22" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G22" t="n">
         <v>0.0</v>
@@ -875,7 +1035,7 @@
         <v>2000.0</v>
       </c>
       <c r="I22" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J22"/>
       <c r="K22"/>
@@ -891,16 +1051,16 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E23" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F23" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G23" t="n">
         <v>0.0</v>
@@ -909,7 +1069,7 @@
         <v>4000.0</v>
       </c>
       <c r="I23" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J23"/>
       <c r="K23"/>
@@ -928,10 +1088,10 @@
         <v>0.1</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E24" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F24" t="n">
         <v>3000.0</v>
@@ -943,7 +1103,7 @@
         <v>2000.0</v>
       </c>
       <c r="I24" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J24"/>
       <c r="K24"/>
@@ -962,10 +1122,10 @@
         <v>0.1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E25" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F25" t="n">
         <v>3000.0</v>
@@ -977,7 +1137,7 @@
         <v>4000.0</v>
       </c>
       <c r="I25" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J25"/>
       <c r="K25"/>
@@ -993,16 +1153,16 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D26" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E26" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F26" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G26" t="n">
         <v>0.0</v>
@@ -1011,7 +1171,7 @@
         <v>2000.0</v>
       </c>
       <c r="I26" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J26"/>
       <c r="K26"/>
@@ -1027,16 +1187,16 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D27" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E27" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F27" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G27" t="n">
         <v>0.0</v>
@@ -1045,7 +1205,7 @@
         <v>4000.0</v>
       </c>
       <c r="I27" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J27"/>
       <c r="K27"/>
@@ -1064,10 +1224,10 @@
         <v>0.1</v>
       </c>
       <c r="D28" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E28" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F28" t="n">
         <v>3000.0</v>
@@ -1079,7 +1239,7 @@
         <v>2000.0</v>
       </c>
       <c r="I28" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J28"/>
       <c r="K28"/>
@@ -1098,10 +1258,10 @@
         <v>0.1</v>
       </c>
       <c r="D29" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E29" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F29" t="n">
         <v>3000.0</v>
@@ -1113,7 +1273,7 @@
         <v>4000.0</v>
       </c>
       <c r="I29" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J29"/>
       <c r="K29"/>
@@ -1129,7 +1289,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D30" t="n">
         <v>3.125</v>
@@ -1138,7 +1298,7 @@
         <v>36.0</v>
       </c>
       <c r="F30" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G30" t="n">
         <v>0.0</v>
@@ -1163,7 +1323,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D31" t="n">
         <v>3.125</v>
@@ -1172,7 +1332,7 @@
         <v>36.0</v>
       </c>
       <c r="F31" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G31" t="n">
         <v>0.0</v>
@@ -1277,7 +1437,7 @@
         <v>100.0</v>
       </c>
       <c r="G34" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H34" t="n">
         <v>2000.0</v>
@@ -1314,7 +1474,7 @@
         <v>500.0</v>
       </c>
       <c r="H35" t="n">
-        <v>2000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I35" t="n">
         <v>36.0</v>
@@ -1348,7 +1508,7 @@
         <v>1000.0</v>
       </c>
       <c r="H36" t="n">
-        <v>4000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I36" t="n">
         <v>36.0</v>
@@ -1379,7 +1539,7 @@
         <v>100.0</v>
       </c>
       <c r="G37" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H37" t="n">
         <v>4000.0</v>
@@ -1401,7 +1561,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D38" t="n">
         <v>0.0</v>
@@ -1410,10 +1570,10 @@
         <v>12.0</v>
       </c>
       <c r="F38" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G38" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H38" t="n">
         <v>2000.0</v>
@@ -1435,7 +1595,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D39" t="n">
         <v>0.0</v>
@@ -1444,13 +1604,13 @@
         <v>12.0</v>
       </c>
       <c r="F39" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G39" t="n">
         <v>500.0</v>
       </c>
       <c r="H39" t="n">
-        <v>2000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I39" t="n">
         <v>36.0</v>
@@ -1469,7 +1629,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D40" t="n">
         <v>0.0</v>
@@ -1478,13 +1638,13 @@
         <v>12.0</v>
       </c>
       <c r="F40" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G40" t="n">
         <v>1000.0</v>
       </c>
       <c r="H40" t="n">
-        <v>4000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I40" t="n">
         <v>36.0</v>
@@ -1503,7 +1663,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D41" t="n">
         <v>0.0</v>
@@ -1512,10 +1672,10 @@
         <v>12.0</v>
       </c>
       <c r="F41" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G41" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H41" t="n">
         <v>4000.0</v>
@@ -1540,22 +1700,22 @@
         <v>0.01</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E42" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F42" t="n">
         <v>100.0</v>
       </c>
       <c r="G42" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H42" t="n">
         <v>2000.0</v>
       </c>
       <c r="I42" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J42"/>
       <c r="K42"/>
@@ -1574,10 +1734,10 @@
         <v>0.01</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E43" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F43" t="n">
         <v>100.0</v>
@@ -1586,10 +1746,10 @@
         <v>500.0</v>
       </c>
       <c r="H43" t="n">
-        <v>2000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I43" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J43"/>
       <c r="K43"/>
@@ -1608,10 +1768,10 @@
         <v>0.01</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E44" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F44" t="n">
         <v>100.0</v>
@@ -1620,10 +1780,10 @@
         <v>1000.0</v>
       </c>
       <c r="H44" t="n">
-        <v>4000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I44" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J44"/>
       <c r="K44"/>
@@ -1642,22 +1802,22 @@
         <v>0.01</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E45" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F45" t="n">
         <v>100.0</v>
       </c>
       <c r="G45" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H45" t="n">
         <v>4000.0</v>
       </c>
       <c r="I45" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J45"/>
       <c r="K45"/>
@@ -1673,25 +1833,25 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E46" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F46" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G46" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H46" t="n">
         <v>2000.0</v>
       </c>
       <c r="I46" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
@@ -1707,25 +1867,25 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E47" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F47" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G47" t="n">
         <v>500.0</v>
       </c>
       <c r="H47" t="n">
-        <v>2000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I47" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J47"/>
       <c r="K47"/>
@@ -1741,25 +1901,25 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E48" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F48" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G48" t="n">
         <v>1000.0</v>
       </c>
       <c r="H48" t="n">
-        <v>4000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I48" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
@@ -1775,25 +1935,25 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E49" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F49" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G49" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H49" t="n">
         <v>4000.0</v>
       </c>
       <c r="I49" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J49"/>
       <c r="K49"/>
@@ -1812,22 +1972,22 @@
         <v>0.01</v>
       </c>
       <c r="D50" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E50" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F50" t="n">
         <v>100.0</v>
       </c>
       <c r="G50" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H50" t="n">
         <v>2000.0</v>
       </c>
       <c r="I50" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J50"/>
       <c r="K50"/>
@@ -1846,10 +2006,10 @@
         <v>0.01</v>
       </c>
       <c r="D51" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F51" t="n">
         <v>100.0</v>
@@ -1858,10 +2018,10 @@
         <v>500.0</v>
       </c>
       <c r="H51" t="n">
-        <v>2000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I51" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J51"/>
       <c r="K51"/>
@@ -1880,10 +2040,10 @@
         <v>0.01</v>
       </c>
       <c r="D52" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E52" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F52" t="n">
         <v>100.0</v>
@@ -1892,10 +2052,10 @@
         <v>1000.0</v>
       </c>
       <c r="H52" t="n">
-        <v>4000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I52" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J52"/>
       <c r="K52"/>
@@ -1914,22 +2074,22 @@
         <v>0.01</v>
       </c>
       <c r="D53" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E53" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F53" t="n">
         <v>100.0</v>
       </c>
       <c r="G53" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H53" t="n">
         <v>4000.0</v>
       </c>
       <c r="I53" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J53"/>
       <c r="K53"/>
@@ -1945,25 +2105,25 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D54" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E54" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F54" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G54" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H54" t="n">
         <v>2000.0</v>
       </c>
       <c r="I54" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J54"/>
       <c r="K54"/>
@@ -1979,25 +2139,25 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D55" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E55" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F55" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G55" t="n">
         <v>500.0</v>
       </c>
       <c r="H55" t="n">
-        <v>2000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I55" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J55"/>
       <c r="K55"/>
@@ -2013,25 +2173,25 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D56" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E56" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F56" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G56" t="n">
         <v>1000.0</v>
       </c>
       <c r="H56" t="n">
-        <v>4000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I56" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J56"/>
       <c r="K56"/>
@@ -2047,25 +2207,25 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D57" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E57" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F57" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G57" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H57" t="n">
         <v>4000.0</v>
       </c>
       <c r="I57" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J57"/>
       <c r="K57"/>
@@ -2093,7 +2253,7 @@
         <v>100.0</v>
       </c>
       <c r="G58" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H58" t="n">
         <v>2000.0</v>
@@ -2130,7 +2290,7 @@
         <v>500.0</v>
       </c>
       <c r="H59" t="n">
-        <v>2000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I59" t="n">
         <v>108.0</v>
@@ -2164,7 +2324,7 @@
         <v>1000.0</v>
       </c>
       <c r="H60" t="n">
-        <v>4000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I60" t="n">
         <v>108.0</v>
@@ -2195,7 +2355,7 @@
         <v>100.0</v>
       </c>
       <c r="G61" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H61" t="n">
         <v>4000.0</v>
@@ -2217,7 +2377,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D62" t="n">
         <v>3.125</v>
@@ -2226,10 +2386,10 @@
         <v>36.0</v>
       </c>
       <c r="F62" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G62" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H62" t="n">
         <v>2000.0</v>
@@ -2251,7 +2411,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D63" t="n">
         <v>3.125</v>
@@ -2260,13 +2420,13 @@
         <v>36.0</v>
       </c>
       <c r="F63" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G63" t="n">
         <v>500.0</v>
       </c>
       <c r="H63" t="n">
-        <v>2000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I63" t="n">
         <v>108.0</v>
@@ -2285,7 +2445,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D64" t="n">
         <v>3.125</v>
@@ -2294,13 +2454,13 @@
         <v>36.0</v>
       </c>
       <c r="F64" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G64" t="n">
         <v>1000.0</v>
       </c>
       <c r="H64" t="n">
-        <v>4000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I64" t="n">
         <v>108.0</v>
@@ -2319,7 +2479,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D65" t="n">
         <v>3.125</v>
@@ -2328,10 +2488,10 @@
         <v>36.0</v>
       </c>
       <c r="F65" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G65" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H65" t="n">
         <v>4000.0</v>
@@ -2353,7 +2513,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D66" t="n">
         <v>0.0</v>
@@ -2362,10 +2522,10 @@
         <v>12.0</v>
       </c>
       <c r="F66" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G66" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H66" t="n">
         <v>2000.0</v>
@@ -2387,7 +2547,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D67" t="n">
         <v>0.0</v>
@@ -2396,13 +2556,13 @@
         <v>12.0</v>
       </c>
       <c r="F67" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G67" t="n">
         <v>500.0</v>
       </c>
       <c r="H67" t="n">
-        <v>2000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I67" t="n">
         <v>36.0</v>
@@ -2421,7 +2581,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D68" t="n">
         <v>0.0</v>
@@ -2430,13 +2590,13 @@
         <v>12.0</v>
       </c>
       <c r="F68" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G68" t="n">
         <v>1000.0</v>
       </c>
       <c r="H68" t="n">
-        <v>4000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I68" t="n">
         <v>36.0</v>
@@ -2455,7 +2615,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D69" t="n">
         <v>0.0</v>
@@ -2464,10 +2624,10 @@
         <v>12.0</v>
       </c>
       <c r="F69" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G69" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H69" t="n">
         <v>4000.0</v>
@@ -2501,7 +2661,7 @@
         <v>3000.0</v>
       </c>
       <c r="G70" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H70" t="n">
         <v>2000.0</v>
@@ -2538,7 +2698,7 @@
         <v>500.0</v>
       </c>
       <c r="H71" t="n">
-        <v>2000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I71" t="n">
         <v>36.0</v>
@@ -2572,7 +2732,7 @@
         <v>1000.0</v>
       </c>
       <c r="H72" t="n">
-        <v>4000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I72" t="n">
         <v>36.0</v>
@@ -2603,7 +2763,7 @@
         <v>3000.0</v>
       </c>
       <c r="G73" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H73" t="n">
         <v>4000.0</v>
@@ -2625,25 +2785,25 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E74" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F74" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G74" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H74" t="n">
         <v>2000.0</v>
       </c>
       <c r="I74" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J74"/>
       <c r="K74"/>
@@ -2659,25 +2819,25 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E75" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F75" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G75" t="n">
         <v>500.0</v>
       </c>
       <c r="H75" t="n">
-        <v>2000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I75" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J75"/>
       <c r="K75"/>
@@ -2693,25 +2853,25 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E76" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F76" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G76" t="n">
         <v>1000.0</v>
       </c>
       <c r="H76" t="n">
-        <v>4000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I76" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J76"/>
       <c r="K76"/>
@@ -2727,25 +2887,25 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E77" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F77" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G77" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H77" t="n">
         <v>4000.0</v>
       </c>
       <c r="I77" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J77"/>
       <c r="K77"/>
@@ -2764,22 +2924,22 @@
         <v>0.1</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E78" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F78" t="n">
         <v>3000.0</v>
       </c>
       <c r="G78" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H78" t="n">
         <v>2000.0</v>
       </c>
       <c r="I78" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J78"/>
       <c r="K78"/>
@@ -2798,10 +2958,10 @@
         <v>0.1</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E79" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F79" t="n">
         <v>3000.0</v>
@@ -2810,10 +2970,10 @@
         <v>500.0</v>
       </c>
       <c r="H79" t="n">
-        <v>2000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I79" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J79"/>
       <c r="K79"/>
@@ -2832,10 +2992,10 @@
         <v>0.1</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E80" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F80" t="n">
         <v>3000.0</v>
@@ -2844,10 +3004,10 @@
         <v>1000.0</v>
       </c>
       <c r="H80" t="n">
-        <v>4000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I80" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J80"/>
       <c r="K80"/>
@@ -2866,22 +3026,22 @@
         <v>0.1</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E81" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F81" t="n">
         <v>3000.0</v>
       </c>
       <c r="G81" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H81" t="n">
         <v>4000.0</v>
       </c>
       <c r="I81" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J81"/>
       <c r="K81"/>
@@ -2897,25 +3057,25 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D82" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E82" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F82" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G82" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H82" t="n">
         <v>2000.0</v>
       </c>
       <c r="I82" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J82"/>
       <c r="K82"/>
@@ -2931,25 +3091,25 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D83" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E83" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F83" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G83" t="n">
         <v>500.0</v>
       </c>
       <c r="H83" t="n">
-        <v>2000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I83" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J83"/>
       <c r="K83"/>
@@ -2965,25 +3125,25 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D84" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E84" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F84" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G84" t="n">
         <v>1000.0</v>
       </c>
       <c r="H84" t="n">
-        <v>4000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I84" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J84"/>
       <c r="K84"/>
@@ -2999,25 +3159,25 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D85" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E85" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F85" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G85" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H85" t="n">
         <v>4000.0</v>
       </c>
       <c r="I85" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J85"/>
       <c r="K85"/>
@@ -3036,22 +3196,22 @@
         <v>0.1</v>
       </c>
       <c r="D86" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E86" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F86" t="n">
         <v>3000.0</v>
       </c>
       <c r="G86" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H86" t="n">
         <v>2000.0</v>
       </c>
       <c r="I86" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J86"/>
       <c r="K86"/>
@@ -3070,10 +3230,10 @@
         <v>0.1</v>
       </c>
       <c r="D87" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E87" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F87" t="n">
         <v>3000.0</v>
@@ -3082,10 +3242,10 @@
         <v>500.0</v>
       </c>
       <c r="H87" t="n">
-        <v>2000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I87" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J87"/>
       <c r="K87"/>
@@ -3104,10 +3264,10 @@
         <v>0.1</v>
       </c>
       <c r="D88" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E88" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F88" t="n">
         <v>3000.0</v>
@@ -3116,10 +3276,10 @@
         <v>1000.0</v>
       </c>
       <c r="H88" t="n">
-        <v>4000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I88" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J88"/>
       <c r="K88"/>
@@ -3138,22 +3298,22 @@
         <v>0.1</v>
       </c>
       <c r="D89" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E89" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F89" t="n">
         <v>3000.0</v>
       </c>
       <c r="G89" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H89" t="n">
         <v>4000.0</v>
       </c>
       <c r="I89" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J89"/>
       <c r="K89"/>
@@ -3169,7 +3329,7 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D90" t="n">
         <v>3.125</v>
@@ -3178,10 +3338,10 @@
         <v>36.0</v>
       </c>
       <c r="F90" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G90" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H90" t="n">
         <v>2000.0</v>
@@ -3203,7 +3363,7 @@
         <v>0.0</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D91" t="n">
         <v>3.125</v>
@@ -3212,13 +3372,13 @@
         <v>36.0</v>
       </c>
       <c r="F91" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G91" t="n">
         <v>500.0</v>
       </c>
       <c r="H91" t="n">
-        <v>2000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I91" t="n">
         <v>108.0</v>
@@ -3237,7 +3397,7 @@
         <v>0.0</v>
       </c>
       <c r="C92" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D92" t="n">
         <v>3.125</v>
@@ -3246,13 +3406,13 @@
         <v>36.0</v>
       </c>
       <c r="F92" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G92" t="n">
         <v>1000.0</v>
       </c>
       <c r="H92" t="n">
-        <v>4000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I92" t="n">
         <v>108.0</v>
@@ -3271,7 +3431,7 @@
         <v>0.0</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D93" t="n">
         <v>3.125</v>
@@ -3280,10 +3440,10 @@
         <v>36.0</v>
       </c>
       <c r="F93" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G93" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H93" t="n">
         <v>4000.0</v>
@@ -3317,7 +3477,7 @@
         <v>3000.0</v>
       </c>
       <c r="G94" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H94" t="n">
         <v>2000.0</v>
@@ -3354,7 +3514,7 @@
         <v>500.0</v>
       </c>
       <c r="H95" t="n">
-        <v>2000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I95" t="n">
         <v>108.0</v>
@@ -3388,7 +3548,7 @@
         <v>1000.0</v>
       </c>
       <c r="H96" t="n">
-        <v>4000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I96" t="n">
         <v>108.0</v>
@@ -3419,7 +3579,7 @@
         <v>3000.0</v>
       </c>
       <c r="G97" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H97" t="n">
         <v>4000.0</v>
@@ -3453,7 +3613,7 @@
         <v>100.0</v>
       </c>
       <c r="G98" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H98" t="n">
         <v>2000.0</v>
@@ -3490,7 +3650,7 @@
         <v>500.0</v>
       </c>
       <c r="H99" t="n">
-        <v>2000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I99" t="n">
         <v>36.0</v>
@@ -3524,7 +3684,7 @@
         <v>1000.0</v>
       </c>
       <c r="H100" t="n">
-        <v>4000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I100" t="n">
         <v>36.0</v>
@@ -3555,7 +3715,7 @@
         <v>100.0</v>
       </c>
       <c r="G101" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H101" t="n">
         <v>4000.0</v>
@@ -3577,7 +3737,7 @@
         <v>0.0</v>
       </c>
       <c r="C102" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D102" t="n">
         <v>0.0</v>
@@ -3586,10 +3746,10 @@
         <v>12.0</v>
       </c>
       <c r="F102" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G102" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H102" t="n">
         <v>2000.0</v>
@@ -3611,7 +3771,7 @@
         <v>0.0</v>
       </c>
       <c r="C103" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D103" t="n">
         <v>0.0</v>
@@ -3620,13 +3780,13 @@
         <v>12.0</v>
       </c>
       <c r="F103" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G103" t="n">
         <v>500.0</v>
       </c>
       <c r="H103" t="n">
-        <v>2000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I103" t="n">
         <v>36.0</v>
@@ -3645,7 +3805,7 @@
         <v>0.0</v>
       </c>
       <c r="C104" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D104" t="n">
         <v>0.0</v>
@@ -3654,13 +3814,13 @@
         <v>12.0</v>
       </c>
       <c r="F104" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G104" t="n">
         <v>1000.0</v>
       </c>
       <c r="H104" t="n">
-        <v>4000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I104" t="n">
         <v>36.0</v>
@@ -3679,7 +3839,7 @@
         <v>0.0</v>
       </c>
       <c r="C105" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D105" t="n">
         <v>0.0</v>
@@ -3688,10 +3848,10 @@
         <v>12.0</v>
       </c>
       <c r="F105" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G105" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H105" t="n">
         <v>4000.0</v>
@@ -3716,22 +3876,22 @@
         <v>0.01</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E106" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F106" t="n">
         <v>100.0</v>
       </c>
       <c r="G106" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H106" t="n">
         <v>2000.0</v>
       </c>
       <c r="I106" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J106"/>
       <c r="K106"/>
@@ -3750,10 +3910,10 @@
         <v>0.01</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E107" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F107" t="n">
         <v>100.0</v>
@@ -3762,10 +3922,10 @@
         <v>500.0</v>
       </c>
       <c r="H107" t="n">
-        <v>2000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I107" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J107"/>
       <c r="K107"/>
@@ -3784,10 +3944,10 @@
         <v>0.01</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E108" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F108" t="n">
         <v>100.0</v>
@@ -3796,10 +3956,10 @@
         <v>1000.0</v>
       </c>
       <c r="H108" t="n">
-        <v>4000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I108" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J108"/>
       <c r="K108"/>
@@ -3818,22 +3978,22 @@
         <v>0.01</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E109" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F109" t="n">
         <v>100.0</v>
       </c>
       <c r="G109" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H109" t="n">
         <v>4000.0</v>
       </c>
       <c r="I109" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J109"/>
       <c r="K109"/>
@@ -3849,25 +4009,25 @@
         <v>0.0</v>
       </c>
       <c r="C110" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E110" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F110" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G110" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H110" t="n">
         <v>2000.0</v>
       </c>
       <c r="I110" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J110"/>
       <c r="K110"/>
@@ -3883,25 +4043,25 @@
         <v>0.0</v>
       </c>
       <c r="C111" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E111" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F111" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G111" t="n">
         <v>500.0</v>
       </c>
       <c r="H111" t="n">
-        <v>2000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I111" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J111"/>
       <c r="K111"/>
@@ -3917,25 +4077,25 @@
         <v>0.0</v>
       </c>
       <c r="C112" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E112" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F112" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G112" t="n">
         <v>1000.0</v>
       </c>
       <c r="H112" t="n">
-        <v>4000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I112" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J112"/>
       <c r="K112"/>
@@ -3951,25 +4111,25 @@
         <v>0.0</v>
       </c>
       <c r="C113" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E113" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F113" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G113" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H113" t="n">
         <v>4000.0</v>
       </c>
       <c r="I113" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J113"/>
       <c r="K113"/>
@@ -3988,22 +4148,22 @@
         <v>0.01</v>
       </c>
       <c r="D114" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E114" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F114" t="n">
         <v>100.0</v>
       </c>
       <c r="G114" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H114" t="n">
         <v>2000.0</v>
       </c>
       <c r="I114" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J114"/>
       <c r="K114"/>
@@ -4022,10 +4182,10 @@
         <v>0.01</v>
       </c>
       <c r="D115" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E115" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F115" t="n">
         <v>100.0</v>
@@ -4034,10 +4194,10 @@
         <v>500.0</v>
       </c>
       <c r="H115" t="n">
-        <v>2000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I115" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J115"/>
       <c r="K115"/>
@@ -4056,10 +4216,10 @@
         <v>0.01</v>
       </c>
       <c r="D116" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E116" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F116" t="n">
         <v>100.0</v>
@@ -4068,10 +4228,10 @@
         <v>1000.0</v>
       </c>
       <c r="H116" t="n">
-        <v>4000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I116" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J116"/>
       <c r="K116"/>
@@ -4090,22 +4250,22 @@
         <v>0.01</v>
       </c>
       <c r="D117" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E117" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F117" t="n">
         <v>100.0</v>
       </c>
       <c r="G117" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H117" t="n">
         <v>4000.0</v>
       </c>
       <c r="I117" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J117"/>
       <c r="K117"/>
@@ -4121,25 +4281,25 @@
         <v>0.0</v>
       </c>
       <c r="C118" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D118" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E118" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F118" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G118" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H118" t="n">
         <v>2000.0</v>
       </c>
       <c r="I118" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J118"/>
       <c r="K118"/>
@@ -4155,25 +4315,25 @@
         <v>0.0</v>
       </c>
       <c r="C119" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D119" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E119" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F119" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G119" t="n">
         <v>500.0</v>
       </c>
       <c r="H119" t="n">
-        <v>2000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I119" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J119"/>
       <c r="K119"/>
@@ -4189,25 +4349,25 @@
         <v>0.0</v>
       </c>
       <c r="C120" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D120" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E120" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F120" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G120" t="n">
         <v>1000.0</v>
       </c>
       <c r="H120" t="n">
-        <v>4000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I120" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J120"/>
       <c r="K120"/>
@@ -4223,25 +4383,25 @@
         <v>0.0</v>
       </c>
       <c r="C121" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D121" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E121" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F121" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G121" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H121" t="n">
         <v>4000.0</v>
       </c>
       <c r="I121" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J121"/>
       <c r="K121"/>
@@ -4269,7 +4429,7 @@
         <v>100.0</v>
       </c>
       <c r="G122" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H122" t="n">
         <v>2000.0</v>
@@ -4306,7 +4466,7 @@
         <v>500.0</v>
       </c>
       <c r="H123" t="n">
-        <v>2000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I123" t="n">
         <v>108.0</v>
@@ -4340,7 +4500,7 @@
         <v>1000.0</v>
       </c>
       <c r="H124" t="n">
-        <v>4000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I124" t="n">
         <v>108.0</v>
@@ -4371,7 +4531,7 @@
         <v>100.0</v>
       </c>
       <c r="G125" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H125" t="n">
         <v>4000.0</v>
@@ -4393,7 +4553,7 @@
         <v>0.0</v>
       </c>
       <c r="C126" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D126" t="n">
         <v>3.125</v>
@@ -4402,10 +4562,10 @@
         <v>36.0</v>
       </c>
       <c r="F126" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G126" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H126" t="n">
         <v>2000.0</v>
@@ -4427,7 +4587,7 @@
         <v>0.0</v>
       </c>
       <c r="C127" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D127" t="n">
         <v>3.125</v>
@@ -4436,13 +4596,13 @@
         <v>36.0</v>
       </c>
       <c r="F127" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G127" t="n">
         <v>500.0</v>
       </c>
       <c r="H127" t="n">
-        <v>2000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I127" t="n">
         <v>108.0</v>
@@ -4461,7 +4621,7 @@
         <v>0.0</v>
       </c>
       <c r="C128" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D128" t="n">
         <v>3.125</v>
@@ -4470,13 +4630,13 @@
         <v>36.0</v>
       </c>
       <c r="F128" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G128" t="n">
         <v>1000.0</v>
       </c>
       <c r="H128" t="n">
-        <v>4000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I128" t="n">
         <v>108.0</v>
@@ -4495,7 +4655,7 @@
         <v>0.0</v>
       </c>
       <c r="C129" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D129" t="n">
         <v>3.125</v>
@@ -4504,10 +4664,10 @@
         <v>36.0</v>
       </c>
       <c r="F129" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G129" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H129" t="n">
         <v>4000.0</v>
@@ -4529,7 +4689,7 @@
         <v>0.0</v>
       </c>
       <c r="C130" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D130" t="n">
         <v>0.0</v>
@@ -4538,10 +4698,10 @@
         <v>12.0</v>
       </c>
       <c r="F130" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G130" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H130" t="n">
         <v>2000.0</v>
@@ -4563,7 +4723,7 @@
         <v>0.0</v>
       </c>
       <c r="C131" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D131" t="n">
         <v>0.0</v>
@@ -4572,13 +4732,13 @@
         <v>12.0</v>
       </c>
       <c r="F131" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G131" t="n">
         <v>500.0</v>
       </c>
       <c r="H131" t="n">
-        <v>2000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I131" t="n">
         <v>36.0</v>
@@ -4597,7 +4757,7 @@
         <v>0.0</v>
       </c>
       <c r="C132" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D132" t="n">
         <v>0.0</v>
@@ -4606,13 +4766,13 @@
         <v>12.0</v>
       </c>
       <c r="F132" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G132" t="n">
         <v>1000.0</v>
       </c>
       <c r="H132" t="n">
-        <v>4000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I132" t="n">
         <v>36.0</v>
@@ -4631,7 +4791,7 @@
         <v>0.0</v>
       </c>
       <c r="C133" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D133" t="n">
         <v>0.0</v>
@@ -4640,10 +4800,10 @@
         <v>12.0</v>
       </c>
       <c r="F133" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G133" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H133" t="n">
         <v>4000.0</v>
@@ -4677,7 +4837,7 @@
         <v>3000.0</v>
       </c>
       <c r="G134" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H134" t="n">
         <v>2000.0</v>
@@ -4714,7 +4874,7 @@
         <v>500.0</v>
       </c>
       <c r="H135" t="n">
-        <v>2000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I135" t="n">
         <v>36.0</v>
@@ -4748,7 +4908,7 @@
         <v>1000.0</v>
       </c>
       <c r="H136" t="n">
-        <v>4000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I136" t="n">
         <v>36.0</v>
@@ -4779,7 +4939,7 @@
         <v>3000.0</v>
       </c>
       <c r="G137" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H137" t="n">
         <v>4000.0</v>
@@ -4801,25 +4961,25 @@
         <v>0.0</v>
       </c>
       <c r="C138" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E138" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F138" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G138" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H138" t="n">
         <v>2000.0</v>
       </c>
       <c r="I138" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J138"/>
       <c r="K138"/>
@@ -4835,25 +4995,25 @@
         <v>0.0</v>
       </c>
       <c r="C139" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E139" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F139" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G139" t="n">
         <v>500.0</v>
       </c>
       <c r="H139" t="n">
-        <v>2000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I139" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J139"/>
       <c r="K139"/>
@@ -4869,25 +5029,25 @@
         <v>0.0</v>
       </c>
       <c r="C140" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E140" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F140" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G140" t="n">
         <v>1000.0</v>
       </c>
       <c r="H140" t="n">
-        <v>4000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I140" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J140"/>
       <c r="K140"/>
@@ -4903,25 +5063,25 @@
         <v>0.0</v>
       </c>
       <c r="C141" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E141" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F141" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G141" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H141" t="n">
         <v>4000.0</v>
       </c>
       <c r="I141" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J141"/>
       <c r="K141"/>
@@ -4940,22 +5100,22 @@
         <v>0.1</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E142" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F142" t="n">
         <v>3000.0</v>
       </c>
       <c r="G142" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H142" t="n">
         <v>2000.0</v>
       </c>
       <c r="I142" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J142"/>
       <c r="K142"/>
@@ -4974,10 +5134,10 @@
         <v>0.1</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E143" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F143" t="n">
         <v>3000.0</v>
@@ -4986,10 +5146,10 @@
         <v>500.0</v>
       </c>
       <c r="H143" t="n">
-        <v>2000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I143" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J143"/>
       <c r="K143"/>
@@ -5008,10 +5168,10 @@
         <v>0.1</v>
       </c>
       <c r="D144" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E144" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F144" t="n">
         <v>3000.0</v>
@@ -5020,10 +5180,10 @@
         <v>1000.0</v>
       </c>
       <c r="H144" t="n">
-        <v>4000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I144" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J144"/>
       <c r="K144"/>
@@ -5042,22 +5202,22 @@
         <v>0.1</v>
       </c>
       <c r="D145" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E145" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F145" t="n">
         <v>3000.0</v>
       </c>
       <c r="G145" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H145" t="n">
         <v>4000.0</v>
       </c>
       <c r="I145" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J145"/>
       <c r="K145"/>
@@ -5073,25 +5233,25 @@
         <v>0.0</v>
       </c>
       <c r="C146" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D146" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E146" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F146" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G146" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H146" t="n">
         <v>2000.0</v>
       </c>
       <c r="I146" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J146"/>
       <c r="K146"/>
@@ -5107,25 +5267,25 @@
         <v>0.0</v>
       </c>
       <c r="C147" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D147" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E147" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F147" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G147" t="n">
         <v>500.0</v>
       </c>
       <c r="H147" t="n">
-        <v>2000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I147" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J147"/>
       <c r="K147"/>
@@ -5141,25 +5301,25 @@
         <v>0.0</v>
       </c>
       <c r="C148" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D148" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E148" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F148" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G148" t="n">
         <v>1000.0</v>
       </c>
       <c r="H148" t="n">
-        <v>4000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I148" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J148"/>
       <c r="K148"/>
@@ -5175,25 +5335,25 @@
         <v>0.0</v>
       </c>
       <c r="C149" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D149" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E149" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F149" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G149" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H149" t="n">
         <v>4000.0</v>
       </c>
       <c r="I149" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J149"/>
       <c r="K149"/>
@@ -5212,22 +5372,22 @@
         <v>0.1</v>
       </c>
       <c r="D150" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E150" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F150" t="n">
         <v>3000.0</v>
       </c>
       <c r="G150" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H150" t="n">
         <v>2000.0</v>
       </c>
       <c r="I150" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J150"/>
       <c r="K150"/>
@@ -5246,10 +5406,10 @@
         <v>0.1</v>
       </c>
       <c r="D151" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E151" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F151" t="n">
         <v>3000.0</v>
@@ -5258,10 +5418,10 @@
         <v>500.0</v>
       </c>
       <c r="H151" t="n">
-        <v>2000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I151" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J151"/>
       <c r="K151"/>
@@ -5280,10 +5440,10 @@
         <v>0.1</v>
       </c>
       <c r="D152" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E152" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F152" t="n">
         <v>3000.0</v>
@@ -5292,10 +5452,10 @@
         <v>1000.0</v>
       </c>
       <c r="H152" t="n">
-        <v>4000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I152" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J152"/>
       <c r="K152"/>
@@ -5314,22 +5474,22 @@
         <v>0.1</v>
       </c>
       <c r="D153" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E153" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F153" t="n">
         <v>3000.0</v>
       </c>
       <c r="G153" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H153" t="n">
         <v>4000.0</v>
       </c>
       <c r="I153" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J153"/>
       <c r="K153"/>
@@ -5345,7 +5505,7 @@
         <v>0.0</v>
       </c>
       <c r="C154" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D154" t="n">
         <v>3.125</v>
@@ -5354,10 +5514,10 @@
         <v>36.0</v>
       </c>
       <c r="F154" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G154" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H154" t="n">
         <v>2000.0</v>
@@ -5379,7 +5539,7 @@
         <v>0.0</v>
       </c>
       <c r="C155" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D155" t="n">
         <v>3.125</v>
@@ -5388,13 +5548,13 @@
         <v>36.0</v>
       </c>
       <c r="F155" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G155" t="n">
         <v>500.0</v>
       </c>
       <c r="H155" t="n">
-        <v>2000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I155" t="n">
         <v>108.0</v>
@@ -5413,7 +5573,7 @@
         <v>0.0</v>
       </c>
       <c r="C156" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D156" t="n">
         <v>3.125</v>
@@ -5422,13 +5582,13 @@
         <v>36.0</v>
       </c>
       <c r="F156" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G156" t="n">
         <v>1000.0</v>
       </c>
       <c r="H156" t="n">
-        <v>4000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I156" t="n">
         <v>108.0</v>
@@ -5447,7 +5607,7 @@
         <v>0.0</v>
       </c>
       <c r="C157" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D157" t="n">
         <v>3.125</v>
@@ -5456,10 +5616,10 @@
         <v>36.0</v>
       </c>
       <c r="F157" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G157" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H157" t="n">
         <v>4000.0</v>
@@ -5493,7 +5653,7 @@
         <v>3000.0</v>
       </c>
       <c r="G158" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H158" t="n">
         <v>2000.0</v>
@@ -5530,7 +5690,7 @@
         <v>500.0</v>
       </c>
       <c r="H159" t="n">
-        <v>2000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I159" t="n">
         <v>108.0</v>
@@ -5564,7 +5724,7 @@
         <v>1000.0</v>
       </c>
       <c r="H160" t="n">
-        <v>4000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I160" t="n">
         <v>108.0</v>
@@ -5595,7 +5755,7 @@
         <v>3000.0</v>
       </c>
       <c r="G161" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H161" t="n">
         <v>4000.0</v>
@@ -5685,7 +5845,7 @@
         <v>0.0</v>
       </c>
       <c r="C164" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D164" t="n">
         <v>0.0</v>
@@ -5694,7 +5854,7 @@
         <v>12.0</v>
       </c>
       <c r="F164" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G164" t="n">
         <v>0.0</v>
@@ -5719,7 +5879,7 @@
         <v>0.0</v>
       </c>
       <c r="C165" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D165" t="n">
         <v>0.0</v>
@@ -5728,7 +5888,7 @@
         <v>12.0</v>
       </c>
       <c r="F165" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G165" t="n">
         <v>0.0</v>
@@ -5756,10 +5916,10 @@
         <v>0.01</v>
       </c>
       <c r="D166" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E166" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F166" t="n">
         <v>100.0</v>
@@ -5771,7 +5931,7 @@
         <v>2000.0</v>
       </c>
       <c r="I166" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J166"/>
       <c r="K166"/>
@@ -5790,10 +5950,10 @@
         <v>0.01</v>
       </c>
       <c r="D167" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E167" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F167" t="n">
         <v>100.0</v>
@@ -5805,7 +5965,7 @@
         <v>4000.0</v>
       </c>
       <c r="I167" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J167"/>
       <c r="K167"/>
@@ -5821,16 +5981,16 @@
         <v>0.0</v>
       </c>
       <c r="C168" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D168" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E168" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F168" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G168" t="n">
         <v>0.0</v>
@@ -5839,7 +5999,7 @@
         <v>2000.0</v>
       </c>
       <c r="I168" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J168"/>
       <c r="K168"/>
@@ -5855,16 +6015,16 @@
         <v>0.0</v>
       </c>
       <c r="C169" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D169" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E169" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F169" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G169" t="n">
         <v>0.0</v>
@@ -5873,7 +6033,7 @@
         <v>4000.0</v>
       </c>
       <c r="I169" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J169"/>
       <c r="K169"/>
@@ -5892,10 +6052,10 @@
         <v>0.01</v>
       </c>
       <c r="D170" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E170" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F170" t="n">
         <v>100.0</v>
@@ -5907,7 +6067,7 @@
         <v>2000.0</v>
       </c>
       <c r="I170" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J170"/>
       <c r="K170"/>
@@ -5926,10 +6086,10 @@
         <v>0.01</v>
       </c>
       <c r="D171" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E171" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F171" t="n">
         <v>100.0</v>
@@ -5941,7 +6101,7 @@
         <v>4000.0</v>
       </c>
       <c r="I171" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J171"/>
       <c r="K171"/>
@@ -5957,16 +6117,16 @@
         <v>0.0</v>
       </c>
       <c r="C172" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D172" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E172" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F172" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G172" t="n">
         <v>0.0</v>
@@ -5975,7 +6135,7 @@
         <v>2000.0</v>
       </c>
       <c r="I172" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J172"/>
       <c r="K172"/>
@@ -5991,16 +6151,16 @@
         <v>0.0</v>
       </c>
       <c r="C173" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D173" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E173" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F173" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G173" t="n">
         <v>0.0</v>
@@ -6009,7 +6169,7 @@
         <v>4000.0</v>
       </c>
       <c r="I173" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J173"/>
       <c r="K173"/>
@@ -6093,7 +6253,7 @@
         <v>0.0</v>
       </c>
       <c r="C176" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D176" t="n">
         <v>3.125</v>
@@ -6102,7 +6262,7 @@
         <v>36.0</v>
       </c>
       <c r="F176" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G176" t="n">
         <v>0.0</v>
@@ -6127,7 +6287,7 @@
         <v>0.0</v>
       </c>
       <c r="C177" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D177" t="n">
         <v>3.125</v>
@@ -6136,7 +6296,7 @@
         <v>36.0</v>
       </c>
       <c r="F177" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G177" t="n">
         <v>0.0</v>
@@ -6161,7 +6321,7 @@
         <v>0.0</v>
       </c>
       <c r="C178" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D178" t="n">
         <v>0.0</v>
@@ -6170,7 +6330,7 @@
         <v>12.0</v>
       </c>
       <c r="F178" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G178" t="n">
         <v>0.0</v>
@@ -6195,7 +6355,7 @@
         <v>0.0</v>
       </c>
       <c r="C179" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D179" t="n">
         <v>0.0</v>
@@ -6204,7 +6364,7 @@
         <v>12.0</v>
       </c>
       <c r="F179" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G179" t="n">
         <v>0.0</v>
@@ -6297,16 +6457,16 @@
         <v>0.0</v>
       </c>
       <c r="C182" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D182" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E182" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F182" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G182" t="n">
         <v>0.0</v>
@@ -6315,7 +6475,7 @@
         <v>2000.0</v>
       </c>
       <c r="I182" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J182"/>
       <c r="K182"/>
@@ -6331,16 +6491,16 @@
         <v>0.0</v>
       </c>
       <c r="C183" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D183" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E183" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F183" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G183" t="n">
         <v>0.0</v>
@@ -6349,7 +6509,7 @@
         <v>4000.0</v>
       </c>
       <c r="I183" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J183"/>
       <c r="K183"/>
@@ -6368,10 +6528,10 @@
         <v>0.1</v>
       </c>
       <c r="D184" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E184" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F184" t="n">
         <v>3000.0</v>
@@ -6383,7 +6543,7 @@
         <v>2000.0</v>
       </c>
       <c r="I184" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J184"/>
       <c r="K184"/>
@@ -6402,10 +6562,10 @@
         <v>0.1</v>
       </c>
       <c r="D185" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E185" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F185" t="n">
         <v>3000.0</v>
@@ -6417,7 +6577,7 @@
         <v>4000.0</v>
       </c>
       <c r="I185" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J185"/>
       <c r="K185"/>
@@ -6433,16 +6593,16 @@
         <v>0.0</v>
       </c>
       <c r="C186" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D186" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E186" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F186" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G186" t="n">
         <v>0.0</v>
@@ -6451,7 +6611,7 @@
         <v>2000.0</v>
       </c>
       <c r="I186" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J186"/>
       <c r="K186"/>
@@ -6467,16 +6627,16 @@
         <v>0.0</v>
       </c>
       <c r="C187" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D187" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E187" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F187" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G187" t="n">
         <v>0.0</v>
@@ -6485,7 +6645,7 @@
         <v>4000.0</v>
       </c>
       <c r="I187" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J187"/>
       <c r="K187"/>
@@ -6504,10 +6664,10 @@
         <v>0.1</v>
       </c>
       <c r="D188" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E188" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F188" t="n">
         <v>3000.0</v>
@@ -6519,7 +6679,7 @@
         <v>2000.0</v>
       </c>
       <c r="I188" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J188"/>
       <c r="K188"/>
@@ -6538,10 +6698,10 @@
         <v>0.1</v>
       </c>
       <c r="D189" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E189" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F189" t="n">
         <v>3000.0</v>
@@ -6553,7 +6713,7 @@
         <v>4000.0</v>
       </c>
       <c r="I189" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J189"/>
       <c r="K189"/>
@@ -6569,7 +6729,7 @@
         <v>0.0</v>
       </c>
       <c r="C190" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D190" t="n">
         <v>3.125</v>
@@ -6578,7 +6738,7 @@
         <v>36.0</v>
       </c>
       <c r="F190" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G190" t="n">
         <v>0.0</v>
@@ -6603,7 +6763,7 @@
         <v>0.0</v>
       </c>
       <c r="C191" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D191" t="n">
         <v>3.125</v>
@@ -6612,7 +6772,7 @@
         <v>36.0</v>
       </c>
       <c r="F191" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G191" t="n">
         <v>0.0</v>
@@ -6770,7 +6930,7 @@
         <v>18</v>
       </c>
       <c r="B196" t="n">
-        <v>32.0</v>
+        <v>64.0</v>
       </c>
       <c r="C196" t="n">
         <v>0.01</v>
@@ -6782,7 +6942,7 @@
         <v>12.0</v>
       </c>
       <c r="F196" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G196" t="n">
         <v>0.0</v>
@@ -6804,7 +6964,7 @@
         <v>18</v>
       </c>
       <c r="B197" t="n">
-        <v>32.0</v>
+        <v>64.0</v>
       </c>
       <c r="C197" t="n">
         <v>0.01</v>
@@ -6816,7 +6976,7 @@
         <v>12.0</v>
       </c>
       <c r="F197" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G197" t="n">
         <v>0.0</v>
@@ -6841,13 +7001,13 @@
         <v>32.0</v>
       </c>
       <c r="C198" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D198" t="n">
         <v>0.0</v>
       </c>
       <c r="E198" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F198" t="n">
         <v>100.0</v>
@@ -6859,7 +7019,7 @@
         <v>2000.0</v>
       </c>
       <c r="I198" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J198"/>
       <c r="K198"/>
@@ -6875,13 +7035,13 @@
         <v>32.0</v>
       </c>
       <c r="C199" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D199" t="n">
         <v>0.0</v>
       </c>
       <c r="E199" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F199" t="n">
         <v>100.0</v>
@@ -6893,7 +7053,7 @@
         <v>4000.0</v>
       </c>
       <c r="I199" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J199"/>
       <c r="K199"/>
@@ -6906,19 +7066,19 @@
         <v>18</v>
       </c>
       <c r="B200" t="n">
-        <v>32.0</v>
+        <v>64.0</v>
       </c>
       <c r="C200" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D200" t="n">
         <v>0.0</v>
       </c>
       <c r="E200" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F200" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G200" t="n">
         <v>0.0</v>
@@ -6927,7 +7087,7 @@
         <v>2000.0</v>
       </c>
       <c r="I200" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J200"/>
       <c r="K200"/>
@@ -6940,19 +7100,19 @@
         <v>18</v>
       </c>
       <c r="B201" t="n">
-        <v>32.0</v>
+        <v>64.0</v>
       </c>
       <c r="C201" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D201" t="n">
         <v>0.0</v>
       </c>
       <c r="E201" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F201" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G201" t="n">
         <v>0.0</v>
@@ -6961,7 +7121,7 @@
         <v>4000.0</v>
       </c>
       <c r="I201" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J201"/>
       <c r="K201"/>
@@ -7042,7 +7202,7 @@
         <v>18</v>
       </c>
       <c r="B204" t="n">
-        <v>32.0</v>
+        <v>64.0</v>
       </c>
       <c r="C204" t="n">
         <v>0.01</v>
@@ -7054,7 +7214,7 @@
         <v>12.0</v>
       </c>
       <c r="F204" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G204" t="n">
         <v>0.0</v>
@@ -7076,7 +7236,7 @@
         <v>18</v>
       </c>
       <c r="B205" t="n">
-        <v>32.0</v>
+        <v>64.0</v>
       </c>
       <c r="C205" t="n">
         <v>0.01</v>
@@ -7088,7 +7248,7 @@
         <v>12.0</v>
       </c>
       <c r="F205" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G205" t="n">
         <v>0.0</v>
@@ -7113,13 +7273,13 @@
         <v>32.0</v>
       </c>
       <c r="C206" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D206" t="n">
         <v>3.125</v>
       </c>
       <c r="E206" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F206" t="n">
         <v>100.0</v>
@@ -7131,7 +7291,7 @@
         <v>2000.0</v>
       </c>
       <c r="I206" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J206"/>
       <c r="K206"/>
@@ -7147,13 +7307,13 @@
         <v>32.0</v>
       </c>
       <c r="C207" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D207" t="n">
         <v>3.125</v>
       </c>
       <c r="E207" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F207" t="n">
         <v>100.0</v>
@@ -7165,7 +7325,7 @@
         <v>4000.0</v>
       </c>
       <c r="I207" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J207"/>
       <c r="K207"/>
@@ -7178,19 +7338,19 @@
         <v>18</v>
       </c>
       <c r="B208" t="n">
-        <v>32.0</v>
+        <v>64.0</v>
       </c>
       <c r="C208" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D208" t="n">
         <v>3.125</v>
       </c>
       <c r="E208" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F208" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G208" t="n">
         <v>0.0</v>
@@ -7199,7 +7359,7 @@
         <v>2000.0</v>
       </c>
       <c r="I208" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J208"/>
       <c r="K208"/>
@@ -7212,19 +7372,19 @@
         <v>18</v>
       </c>
       <c r="B209" t="n">
-        <v>32.0</v>
+        <v>64.0</v>
       </c>
       <c r="C209" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D209" t="n">
         <v>3.125</v>
       </c>
       <c r="E209" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F209" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G209" t="n">
         <v>0.0</v>
@@ -7233,7 +7393,7 @@
         <v>4000.0</v>
       </c>
       <c r="I209" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J209"/>
       <c r="K209"/>
@@ -7249,13 +7409,13 @@
         <v>32.0</v>
       </c>
       <c r="C210" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D210" t="n">
         <v>0.0</v>
       </c>
       <c r="E210" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F210" t="n">
         <v>100.0</v>
@@ -7267,7 +7427,7 @@
         <v>2000.0</v>
       </c>
       <c r="I210" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J210"/>
       <c r="K210"/>
@@ -7283,13 +7443,13 @@
         <v>32.0</v>
       </c>
       <c r="C211" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D211" t="n">
         <v>0.0</v>
       </c>
       <c r="E211" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F211" t="n">
         <v>100.0</v>
@@ -7301,7 +7461,7 @@
         <v>4000.0</v>
       </c>
       <c r="I211" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J211"/>
       <c r="K211"/>
@@ -7314,19 +7474,19 @@
         <v>18</v>
       </c>
       <c r="B212" t="n">
-        <v>32.0</v>
+        <v>64.0</v>
       </c>
       <c r="C212" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D212" t="n">
         <v>0.0</v>
       </c>
       <c r="E212" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F212" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G212" t="n">
         <v>0.0</v>
@@ -7335,7 +7495,7 @@
         <v>2000.0</v>
       </c>
       <c r="I212" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J212"/>
       <c r="K212"/>
@@ -7348,19 +7508,19 @@
         <v>18</v>
       </c>
       <c r="B213" t="n">
-        <v>32.0</v>
+        <v>64.0</v>
       </c>
       <c r="C213" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D213" t="n">
         <v>0.0</v>
       </c>
       <c r="E213" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F213" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G213" t="n">
         <v>0.0</v>
@@ -7369,7 +7529,7 @@
         <v>4000.0</v>
       </c>
       <c r="I213" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J213"/>
       <c r="K213"/>
@@ -7450,7 +7610,7 @@
         <v>18</v>
       </c>
       <c r="B216" t="n">
-        <v>32.0</v>
+        <v>64.0</v>
       </c>
       <c r="C216" t="n">
         <v>0.1</v>
@@ -7462,7 +7622,7 @@
         <v>36.0</v>
       </c>
       <c r="F216" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G216" t="n">
         <v>0.0</v>
@@ -7484,7 +7644,7 @@
         <v>18</v>
       </c>
       <c r="B217" t="n">
-        <v>32.0</v>
+        <v>64.0</v>
       </c>
       <c r="C217" t="n">
         <v>0.1</v>
@@ -7496,7 +7656,7 @@
         <v>36.0</v>
       </c>
       <c r="F217" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G217" t="n">
         <v>0.0</v>
@@ -7521,13 +7681,13 @@
         <v>32.0</v>
       </c>
       <c r="C218" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D218" t="n">
         <v>3.125</v>
       </c>
       <c r="E218" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F218" t="n">
         <v>100.0</v>
@@ -7539,7 +7699,7 @@
         <v>2000.0</v>
       </c>
       <c r="I218" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J218"/>
       <c r="K218"/>
@@ -7555,13 +7715,13 @@
         <v>32.0</v>
       </c>
       <c r="C219" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D219" t="n">
         <v>3.125</v>
       </c>
       <c r="E219" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F219" t="n">
         <v>100.0</v>
@@ -7573,7 +7733,7 @@
         <v>4000.0</v>
       </c>
       <c r="I219" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J219"/>
       <c r="K219"/>
@@ -7586,19 +7746,19 @@
         <v>18</v>
       </c>
       <c r="B220" t="n">
-        <v>32.0</v>
+        <v>64.0</v>
       </c>
       <c r="C220" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D220" t="n">
         <v>3.125</v>
       </c>
       <c r="E220" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F220" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G220" t="n">
         <v>0.0</v>
@@ -7607,7 +7767,7 @@
         <v>2000.0</v>
       </c>
       <c r="I220" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J220"/>
       <c r="K220"/>
@@ -7620,19 +7780,19 @@
         <v>18</v>
       </c>
       <c r="B221" t="n">
-        <v>32.0</v>
+        <v>64.0</v>
       </c>
       <c r="C221" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D221" t="n">
         <v>3.125</v>
       </c>
       <c r="E221" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F221" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G221" t="n">
         <v>0.0</v>
@@ -7641,7 +7801,7 @@
         <v>4000.0</v>
       </c>
       <c r="I221" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J221"/>
       <c r="K221"/>
@@ -7722,7 +7882,7 @@
         <v>18</v>
       </c>
       <c r="B224" t="n">
-        <v>32.0</v>
+        <v>64.0</v>
       </c>
       <c r="C224" t="n">
         <v>0.1</v>
@@ -7734,7 +7894,7 @@
         <v>36.0</v>
       </c>
       <c r="F224" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G224" t="n">
         <v>0.0</v>
@@ -7756,7 +7916,7 @@
         <v>18</v>
       </c>
       <c r="B225" t="n">
-        <v>32.0</v>
+        <v>64.0</v>
       </c>
       <c r="C225" t="n">
         <v>0.1</v>
@@ -7768,7 +7928,7 @@
         <v>36.0</v>
       </c>
       <c r="F225" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G225" t="n">
         <v>0.0</v>
@@ -7790,7 +7950,7 @@
         <v>18</v>
       </c>
       <c r="B226" t="n">
-        <v>64.0</v>
+        <v>32.0</v>
       </c>
       <c r="C226" t="n">
         <v>0.01</v>
@@ -7802,7 +7962,7 @@
         <v>12.0</v>
       </c>
       <c r="F226" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G226" t="n">
         <v>0.0</v>
@@ -7824,7 +7984,7 @@
         <v>18</v>
       </c>
       <c r="B227" t="n">
-        <v>64.0</v>
+        <v>32.0</v>
       </c>
       <c r="C227" t="n">
         <v>0.01</v>
@@ -7836,7 +7996,7 @@
         <v>12.0</v>
       </c>
       <c r="F227" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G227" t="n">
         <v>0.0</v>
@@ -7926,19 +8086,19 @@
         <v>18</v>
       </c>
       <c r="B230" t="n">
-        <v>64.0</v>
+        <v>32.0</v>
       </c>
       <c r="C230" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D230" t="n">
         <v>0.0</v>
       </c>
       <c r="E230" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F230" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G230" t="n">
         <v>0.0</v>
@@ -7947,7 +8107,7 @@
         <v>2000.0</v>
       </c>
       <c r="I230" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J230"/>
       <c r="K230"/>
@@ -7960,19 +8120,19 @@
         <v>18</v>
       </c>
       <c r="B231" t="n">
-        <v>64.0</v>
+        <v>32.0</v>
       </c>
       <c r="C231" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D231" t="n">
         <v>0.0</v>
       </c>
       <c r="E231" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F231" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G231" t="n">
         <v>0.0</v>
@@ -7981,7 +8141,7 @@
         <v>4000.0</v>
       </c>
       <c r="I231" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J231"/>
       <c r="K231"/>
@@ -7997,13 +8157,13 @@
         <v>64.0</v>
       </c>
       <c r="C232" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D232" t="n">
         <v>0.0</v>
       </c>
       <c r="E232" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F232" t="n">
         <v>3000.0</v>
@@ -8015,7 +8175,7 @@
         <v>2000.0</v>
       </c>
       <c r="I232" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J232"/>
       <c r="K232"/>
@@ -8031,13 +8191,13 @@
         <v>64.0</v>
       </c>
       <c r="C233" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D233" t="n">
         <v>0.0</v>
       </c>
       <c r="E233" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F233" t="n">
         <v>3000.0</v>
@@ -8049,7 +8209,7 @@
         <v>4000.0</v>
       </c>
       <c r="I233" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J233"/>
       <c r="K233"/>
@@ -8062,7 +8222,7 @@
         <v>18</v>
       </c>
       <c r="B234" t="n">
-        <v>64.0</v>
+        <v>32.0</v>
       </c>
       <c r="C234" t="n">
         <v>0.01</v>
@@ -8074,7 +8234,7 @@
         <v>12.0</v>
       </c>
       <c r="F234" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G234" t="n">
         <v>0.0</v>
@@ -8096,7 +8256,7 @@
         <v>18</v>
       </c>
       <c r="B235" t="n">
-        <v>64.0</v>
+        <v>32.0</v>
       </c>
       <c r="C235" t="n">
         <v>0.01</v>
@@ -8108,7 +8268,7 @@
         <v>12.0</v>
       </c>
       <c r="F235" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G235" t="n">
         <v>0.0</v>
@@ -8198,19 +8358,19 @@
         <v>18</v>
       </c>
       <c r="B238" t="n">
-        <v>64.0</v>
+        <v>32.0</v>
       </c>
       <c r="C238" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D238" t="n">
         <v>3.125</v>
       </c>
       <c r="E238" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F238" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G238" t="n">
         <v>0.0</v>
@@ -8219,7 +8379,7 @@
         <v>2000.0</v>
       </c>
       <c r="I238" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J238"/>
       <c r="K238"/>
@@ -8232,19 +8392,19 @@
         <v>18</v>
       </c>
       <c r="B239" t="n">
-        <v>64.0</v>
+        <v>32.0</v>
       </c>
       <c r="C239" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D239" t="n">
         <v>3.125</v>
       </c>
       <c r="E239" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F239" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G239" t="n">
         <v>0.0</v>
@@ -8253,7 +8413,7 @@
         <v>4000.0</v>
       </c>
       <c r="I239" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J239"/>
       <c r="K239"/>
@@ -8269,13 +8429,13 @@
         <v>64.0</v>
       </c>
       <c r="C240" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D240" t="n">
         <v>3.125</v>
       </c>
       <c r="E240" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F240" t="n">
         <v>3000.0</v>
@@ -8287,7 +8447,7 @@
         <v>2000.0</v>
       </c>
       <c r="I240" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J240"/>
       <c r="K240"/>
@@ -8303,13 +8463,13 @@
         <v>64.0</v>
       </c>
       <c r="C241" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D241" t="n">
         <v>3.125</v>
       </c>
       <c r="E241" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F241" t="n">
         <v>3000.0</v>
@@ -8321,7 +8481,7 @@
         <v>4000.0</v>
       </c>
       <c r="I241" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J241"/>
       <c r="K241"/>
@@ -8334,19 +8494,19 @@
         <v>18</v>
       </c>
       <c r="B242" t="n">
-        <v>64.0</v>
+        <v>32.0</v>
       </c>
       <c r="C242" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D242" t="n">
         <v>0.0</v>
       </c>
       <c r="E242" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F242" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G242" t="n">
         <v>0.0</v>
@@ -8355,7 +8515,7 @@
         <v>2000.0</v>
       </c>
       <c r="I242" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J242"/>
       <c r="K242"/>
@@ -8368,19 +8528,19 @@
         <v>18</v>
       </c>
       <c r="B243" t="n">
-        <v>64.0</v>
+        <v>32.0</v>
       </c>
       <c r="C243" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D243" t="n">
         <v>0.0</v>
       </c>
       <c r="E243" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F243" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G243" t="n">
         <v>0.0</v>
@@ -8389,7 +8549,7 @@
         <v>4000.0</v>
       </c>
       <c r="I243" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J243"/>
       <c r="K243"/>
@@ -8405,13 +8565,13 @@
         <v>64.0</v>
       </c>
       <c r="C244" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D244" t="n">
         <v>0.0</v>
       </c>
       <c r="E244" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F244" t="n">
         <v>3000.0</v>
@@ -8423,7 +8583,7 @@
         <v>2000.0</v>
       </c>
       <c r="I244" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J244"/>
       <c r="K244"/>
@@ -8439,13 +8599,13 @@
         <v>64.0</v>
       </c>
       <c r="C245" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D245" t="n">
         <v>0.0</v>
       </c>
       <c r="E245" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F245" t="n">
         <v>3000.0</v>
@@ -8457,7 +8617,7 @@
         <v>4000.0</v>
       </c>
       <c r="I245" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J245"/>
       <c r="K245"/>
@@ -8470,7 +8630,7 @@
         <v>18</v>
       </c>
       <c r="B246" t="n">
-        <v>64.0</v>
+        <v>32.0</v>
       </c>
       <c r="C246" t="n">
         <v>0.1</v>
@@ -8482,7 +8642,7 @@
         <v>36.0</v>
       </c>
       <c r="F246" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G246" t="n">
         <v>0.0</v>
@@ -8504,7 +8664,7 @@
         <v>18</v>
       </c>
       <c r="B247" t="n">
-        <v>64.0</v>
+        <v>32.0</v>
       </c>
       <c r="C247" t="n">
         <v>0.1</v>
@@ -8516,7 +8676,7 @@
         <v>36.0</v>
       </c>
       <c r="F247" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G247" t="n">
         <v>0.0</v>
@@ -8606,19 +8766,19 @@
         <v>18</v>
       </c>
       <c r="B250" t="n">
-        <v>64.0</v>
+        <v>32.0</v>
       </c>
       <c r="C250" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D250" t="n">
         <v>3.125</v>
       </c>
       <c r="E250" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F250" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G250" t="n">
         <v>0.0</v>
@@ -8627,7 +8787,7 @@
         <v>2000.0</v>
       </c>
       <c r="I250" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J250"/>
       <c r="K250"/>
@@ -8640,19 +8800,19 @@
         <v>18</v>
       </c>
       <c r="B251" t="n">
-        <v>64.0</v>
+        <v>32.0</v>
       </c>
       <c r="C251" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D251" t="n">
         <v>3.125</v>
       </c>
       <c r="E251" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F251" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G251" t="n">
         <v>0.0</v>
@@ -8661,7 +8821,7 @@
         <v>4000.0</v>
       </c>
       <c r="I251" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J251"/>
       <c r="K251"/>
@@ -8677,13 +8837,13 @@
         <v>64.0</v>
       </c>
       <c r="C252" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D252" t="n">
         <v>3.125</v>
       </c>
       <c r="E252" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F252" t="n">
         <v>3000.0</v>
@@ -8695,7 +8855,7 @@
         <v>2000.0</v>
       </c>
       <c r="I252" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J252"/>
       <c r="K252"/>
@@ -8711,13 +8871,13 @@
         <v>64.0</v>
       </c>
       <c r="C253" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D253" t="n">
         <v>3.125</v>
       </c>
       <c r="E253" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F253" t="n">
         <v>3000.0</v>
@@ -8729,7 +8889,7 @@
         <v>4000.0</v>
       </c>
       <c r="I253" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J253"/>
       <c r="K253"/>
@@ -8742,7 +8902,7 @@
         <v>18</v>
       </c>
       <c r="B254" t="n">
-        <v>64.0</v>
+        <v>32.0</v>
       </c>
       <c r="C254" t="n">
         <v>0.1</v>
@@ -8754,7 +8914,7 @@
         <v>36.0</v>
       </c>
       <c r="F254" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G254" t="n">
         <v>0.0</v>
@@ -8776,7 +8936,7 @@
         <v>18</v>
       </c>
       <c r="B255" t="n">
-        <v>64.0</v>
+        <v>32.0</v>
       </c>
       <c r="C255" t="n">
         <v>0.1</v>
@@ -8788,7 +8948,7 @@
         <v>36.0</v>
       </c>
       <c r="F255" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G255" t="n">
         <v>0.0</v>
@@ -8949,7 +9109,7 @@
         <v>0.0</v>
       </c>
       <c r="C260" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D260" t="n">
         <v>0.0</v>
@@ -8958,7 +9118,7 @@
         <v>12.0</v>
       </c>
       <c r="F260" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G260" t="n">
         <v>0.0</v>
@@ -8983,7 +9143,7 @@
         <v>0.0</v>
       </c>
       <c r="C261" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D261" t="n">
         <v>0.0</v>
@@ -8992,7 +9152,7 @@
         <v>12.0</v>
       </c>
       <c r="F261" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G261" t="n">
         <v>0.0</v>
@@ -9020,10 +9180,10 @@
         <v>0.01</v>
       </c>
       <c r="D262" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E262" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F262" t="n">
         <v>100.0</v>
@@ -9035,7 +9195,7 @@
         <v>2000.0</v>
       </c>
       <c r="I262" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J262"/>
       <c r="K262"/>
@@ -9054,10 +9214,10 @@
         <v>0.01</v>
       </c>
       <c r="D263" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E263" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F263" t="n">
         <v>100.0</v>
@@ -9069,7 +9229,7 @@
         <v>4000.0</v>
       </c>
       <c r="I263" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J263"/>
       <c r="K263"/>
@@ -9085,16 +9245,16 @@
         <v>0.0</v>
       </c>
       <c r="C264" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D264" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E264" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F264" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G264" t="n">
         <v>0.0</v>
@@ -9103,7 +9263,7 @@
         <v>2000.0</v>
       </c>
       <c r="I264" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J264"/>
       <c r="K264"/>
@@ -9119,16 +9279,16 @@
         <v>0.0</v>
       </c>
       <c r="C265" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D265" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E265" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F265" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G265" t="n">
         <v>0.0</v>
@@ -9137,7 +9297,7 @@
         <v>4000.0</v>
       </c>
       <c r="I265" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J265"/>
       <c r="K265"/>
@@ -9156,10 +9316,10 @@
         <v>0.01</v>
       </c>
       <c r="D266" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E266" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F266" t="n">
         <v>100.0</v>
@@ -9171,7 +9331,7 @@
         <v>2000.0</v>
       </c>
       <c r="I266" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J266"/>
       <c r="K266"/>
@@ -9190,10 +9350,10 @@
         <v>0.01</v>
       </c>
       <c r="D267" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E267" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F267" t="n">
         <v>100.0</v>
@@ -9205,7 +9365,7 @@
         <v>4000.0</v>
       </c>
       <c r="I267" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J267"/>
       <c r="K267"/>
@@ -9221,16 +9381,16 @@
         <v>0.0</v>
       </c>
       <c r="C268" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D268" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E268" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F268" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G268" t="n">
         <v>0.0</v>
@@ -9239,7 +9399,7 @@
         <v>2000.0</v>
       </c>
       <c r="I268" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J268"/>
       <c r="K268"/>
@@ -9255,16 +9415,16 @@
         <v>0.0</v>
       </c>
       <c r="C269" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D269" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E269" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F269" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G269" t="n">
         <v>0.0</v>
@@ -9273,7 +9433,7 @@
         <v>4000.0</v>
       </c>
       <c r="I269" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J269"/>
       <c r="K269"/>
@@ -9357,7 +9517,7 @@
         <v>0.0</v>
       </c>
       <c r="C272" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D272" t="n">
         <v>3.125</v>
@@ -9366,7 +9526,7 @@
         <v>36.0</v>
       </c>
       <c r="F272" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G272" t="n">
         <v>0.0</v>
@@ -9391,7 +9551,7 @@
         <v>0.0</v>
       </c>
       <c r="C273" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D273" t="n">
         <v>3.125</v>
@@ -9400,7 +9560,7 @@
         <v>36.0</v>
       </c>
       <c r="F273" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G273" t="n">
         <v>0.0</v>
@@ -9425,7 +9585,7 @@
         <v>0.0</v>
       </c>
       <c r="C274" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D274" t="n">
         <v>0.0</v>
@@ -9434,7 +9594,7 @@
         <v>12.0</v>
       </c>
       <c r="F274" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G274" t="n">
         <v>0.0</v>
@@ -9459,7 +9619,7 @@
         <v>0.0</v>
       </c>
       <c r="C275" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D275" t="n">
         <v>0.0</v>
@@ -9468,7 +9628,7 @@
         <v>12.0</v>
       </c>
       <c r="F275" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G275" t="n">
         <v>0.0</v>
@@ -9561,16 +9721,16 @@
         <v>0.0</v>
       </c>
       <c r="C278" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D278" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E278" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F278" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G278" t="n">
         <v>0.0</v>
@@ -9579,7 +9739,7 @@
         <v>2000.0</v>
       </c>
       <c r="I278" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J278"/>
       <c r="K278"/>
@@ -9595,16 +9755,16 @@
         <v>0.0</v>
       </c>
       <c r="C279" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D279" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E279" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F279" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G279" t="n">
         <v>0.0</v>
@@ -9613,7 +9773,7 @@
         <v>4000.0</v>
       </c>
       <c r="I279" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J279"/>
       <c r="K279"/>
@@ -9632,10 +9792,10 @@
         <v>0.1</v>
       </c>
       <c r="D280" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E280" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F280" t="n">
         <v>3000.0</v>
@@ -9647,7 +9807,7 @@
         <v>2000.0</v>
       </c>
       <c r="I280" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J280"/>
       <c r="K280"/>
@@ -9666,10 +9826,10 @@
         <v>0.1</v>
       </c>
       <c r="D281" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E281" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F281" t="n">
         <v>3000.0</v>
@@ -9681,7 +9841,7 @@
         <v>4000.0</v>
       </c>
       <c r="I281" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J281"/>
       <c r="K281"/>
@@ -9697,16 +9857,16 @@
         <v>0.0</v>
       </c>
       <c r="C282" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D282" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E282" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F282" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G282" t="n">
         <v>0.0</v>
@@ -9715,7 +9875,7 @@
         <v>2000.0</v>
       </c>
       <c r="I282" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J282"/>
       <c r="K282"/>
@@ -9731,16 +9891,16 @@
         <v>0.0</v>
       </c>
       <c r="C283" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D283" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E283" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F283" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G283" t="n">
         <v>0.0</v>
@@ -9749,7 +9909,7 @@
         <v>4000.0</v>
       </c>
       <c r="I283" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J283"/>
       <c r="K283"/>
@@ -9768,10 +9928,10 @@
         <v>0.1</v>
       </c>
       <c r="D284" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E284" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F284" t="n">
         <v>3000.0</v>
@@ -9783,7 +9943,7 @@
         <v>2000.0</v>
       </c>
       <c r="I284" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J284"/>
       <c r="K284"/>
@@ -9802,10 +9962,10 @@
         <v>0.1</v>
       </c>
       <c r="D285" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E285" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F285" t="n">
         <v>3000.0</v>
@@ -9817,7 +9977,7 @@
         <v>4000.0</v>
       </c>
       <c r="I285" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J285"/>
       <c r="K285"/>
@@ -9833,7 +9993,7 @@
         <v>0.0</v>
       </c>
       <c r="C286" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D286" t="n">
         <v>3.125</v>
@@ -9842,7 +10002,7 @@
         <v>36.0</v>
       </c>
       <c r="F286" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G286" t="n">
         <v>0.0</v>
@@ -9867,7 +10027,7 @@
         <v>0.0</v>
       </c>
       <c r="C287" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D287" t="n">
         <v>3.125</v>
@@ -9876,7 +10036,7 @@
         <v>36.0</v>
       </c>
       <c r="F287" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G287" t="n">
         <v>0.0</v>
@@ -10037,7 +10197,7 @@
         <v>0.0</v>
       </c>
       <c r="C292" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D292" t="n">
         <v>0.0</v>
@@ -10046,7 +10206,7 @@
         <v>12.0</v>
       </c>
       <c r="F292" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G292" t="n">
         <v>0.0</v>
@@ -10071,7 +10231,7 @@
         <v>0.0</v>
       </c>
       <c r="C293" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D293" t="n">
         <v>0.0</v>
@@ -10080,7 +10240,7 @@
         <v>12.0</v>
       </c>
       <c r="F293" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G293" t="n">
         <v>0.0</v>
@@ -10108,10 +10268,10 @@
         <v>0.01</v>
       </c>
       <c r="D294" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E294" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F294" t="n">
         <v>100.0</v>
@@ -10123,7 +10283,7 @@
         <v>2000.0</v>
       </c>
       <c r="I294" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J294"/>
       <c r="K294"/>
@@ -10142,10 +10302,10 @@
         <v>0.01</v>
       </c>
       <c r="D295" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E295" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F295" t="n">
         <v>100.0</v>
@@ -10157,7 +10317,7 @@
         <v>4000.0</v>
       </c>
       <c r="I295" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J295"/>
       <c r="K295"/>
@@ -10173,16 +10333,16 @@
         <v>0.0</v>
       </c>
       <c r="C296" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D296" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E296" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F296" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G296" t="n">
         <v>0.0</v>
@@ -10191,7 +10351,7 @@
         <v>2000.0</v>
       </c>
       <c r="I296" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J296"/>
       <c r="K296"/>
@@ -10207,16 +10367,16 @@
         <v>0.0</v>
       </c>
       <c r="C297" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D297" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E297" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F297" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G297" t="n">
         <v>0.0</v>
@@ -10225,7 +10385,7 @@
         <v>4000.0</v>
       </c>
       <c r="I297" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J297"/>
       <c r="K297"/>
@@ -10244,10 +10404,10 @@
         <v>0.01</v>
       </c>
       <c r="D298" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E298" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F298" t="n">
         <v>100.0</v>
@@ -10259,7 +10419,7 @@
         <v>2000.0</v>
       </c>
       <c r="I298" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J298"/>
       <c r="K298"/>
@@ -10278,10 +10438,10 @@
         <v>0.01</v>
       </c>
       <c r="D299" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E299" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F299" t="n">
         <v>100.0</v>
@@ -10293,7 +10453,7 @@
         <v>4000.0</v>
       </c>
       <c r="I299" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J299"/>
       <c r="K299"/>
@@ -10309,16 +10469,16 @@
         <v>0.0</v>
       </c>
       <c r="C300" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D300" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E300" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F300" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G300" t="n">
         <v>0.0</v>
@@ -10327,7 +10487,7 @@
         <v>2000.0</v>
       </c>
       <c r="I300" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J300"/>
       <c r="K300"/>
@@ -10343,16 +10503,16 @@
         <v>0.0</v>
       </c>
       <c r="C301" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D301" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E301" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F301" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G301" t="n">
         <v>0.0</v>
@@ -10361,7 +10521,7 @@
         <v>4000.0</v>
       </c>
       <c r="I301" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J301"/>
       <c r="K301"/>
@@ -10445,7 +10605,7 @@
         <v>0.0</v>
       </c>
       <c r="C304" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D304" t="n">
         <v>3.125</v>
@@ -10454,7 +10614,7 @@
         <v>36.0</v>
       </c>
       <c r="F304" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G304" t="n">
         <v>0.0</v>
@@ -10479,7 +10639,7 @@
         <v>0.0</v>
       </c>
       <c r="C305" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D305" t="n">
         <v>3.125</v>
@@ -10488,7 +10648,7 @@
         <v>36.0</v>
       </c>
       <c r="F305" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G305" t="n">
         <v>0.0</v>
@@ -10513,7 +10673,7 @@
         <v>0.0</v>
       </c>
       <c r="C306" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D306" t="n">
         <v>0.0</v>
@@ -10522,7 +10682,7 @@
         <v>12.0</v>
       </c>
       <c r="F306" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G306" t="n">
         <v>0.0</v>
@@ -10547,7 +10707,7 @@
         <v>0.0</v>
       </c>
       <c r="C307" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D307" t="n">
         <v>0.0</v>
@@ -10556,7 +10716,7 @@
         <v>12.0</v>
       </c>
       <c r="F307" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G307" t="n">
         <v>0.0</v>
@@ -10649,16 +10809,16 @@
         <v>0.0</v>
       </c>
       <c r="C310" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D310" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E310" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F310" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G310" t="n">
         <v>0.0</v>
@@ -10667,7 +10827,7 @@
         <v>2000.0</v>
       </c>
       <c r="I310" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J310"/>
       <c r="K310"/>
@@ -10683,16 +10843,16 @@
         <v>0.0</v>
       </c>
       <c r="C311" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D311" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E311" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F311" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G311" t="n">
         <v>0.0</v>
@@ -10701,7 +10861,7 @@
         <v>4000.0</v>
       </c>
       <c r="I311" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J311"/>
       <c r="K311"/>
@@ -10720,10 +10880,10 @@
         <v>0.1</v>
       </c>
       <c r="D312" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E312" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F312" t="n">
         <v>3000.0</v>
@@ -10735,7 +10895,7 @@
         <v>2000.0</v>
       </c>
       <c r="I312" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J312"/>
       <c r="K312"/>
@@ -10754,10 +10914,10 @@
         <v>0.1</v>
       </c>
       <c r="D313" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E313" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F313" t="n">
         <v>3000.0</v>
@@ -10769,7 +10929,7 @@
         <v>4000.0</v>
       </c>
       <c r="I313" t="n">
-        <v>108.0</v>
+        <v>36.0</v>
       </c>
       <c r="J313"/>
       <c r="K313"/>
@@ -10785,16 +10945,16 @@
         <v>0.0</v>
       </c>
       <c r="C314" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D314" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E314" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F314" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G314" t="n">
         <v>0.0</v>
@@ -10803,7 +10963,7 @@
         <v>2000.0</v>
       </c>
       <c r="I314" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J314"/>
       <c r="K314"/>
@@ -10819,16 +10979,16 @@
         <v>0.0</v>
       </c>
       <c r="C315" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D315" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E315" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F315" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G315" t="n">
         <v>0.0</v>
@@ -10837,7 +10997,7 @@
         <v>4000.0</v>
       </c>
       <c r="I315" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J315"/>
       <c r="K315"/>
@@ -10856,10 +11016,10 @@
         <v>0.1</v>
       </c>
       <c r="D316" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E316" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F316" t="n">
         <v>3000.0</v>
@@ -10871,7 +11031,7 @@
         <v>2000.0</v>
       </c>
       <c r="I316" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J316"/>
       <c r="K316"/>
@@ -10890,10 +11050,10 @@
         <v>0.1</v>
       </c>
       <c r="D317" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E317" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F317" t="n">
         <v>3000.0</v>
@@ -10905,7 +11065,7 @@
         <v>4000.0</v>
       </c>
       <c r="I317" t="n">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="J317"/>
       <c r="K317"/>
@@ -10921,7 +11081,7 @@
         <v>0.0</v>
       </c>
       <c r="C318" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D318" t="n">
         <v>3.125</v>
@@ -10930,7 +11090,7 @@
         <v>36.0</v>
       </c>
       <c r="F318" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G318" t="n">
         <v>0.0</v>
@@ -10955,7 +11115,7 @@
         <v>0.0</v>
       </c>
       <c r="C319" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D319" t="n">
         <v>3.125</v>
@@ -10964,7 +11124,7 @@
         <v>36.0</v>
       </c>
       <c r="F319" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G319" t="n">
         <v>0.0</v>

--- a/ForegroundJobScheduler/results/online results/summary dynamic (windows,granularity) post adj.xlsx
+++ b/ForegroundJobScheduler/results/online results/summary dynamic (windows,granularity) post adj.xlsx
@@ -197,21 +197,11 @@
       <c r="I2" t="n">
         <v>36.0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0.6183652940637246</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.49282215989763584</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.7624149991765361</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.8640776699029126</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.7148906993627491</v>
-      </c>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -241,21 +231,11 @@
       <c r="I3" t="n">
         <v>36.0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0.6183652940637246</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.49282215989763584</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.7624149991765361</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.8640776699029126</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.7148906993627491</v>
-      </c>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -285,21 +265,11 @@
       <c r="I4" t="n">
         <v>36.0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0.5890328212205322</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.45209588024386055</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.5624452964383255</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.608841902931283</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.7390811117413499</v>
-      </c>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -329,21 +299,11 @@
       <c r="I5" t="n">
         <v>36.0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0.5890328212205322</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.45209588024386055</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.5624452964383255</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.608841902931283</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.7390811117413499</v>
-      </c>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -373,21 +333,11 @@
       <c r="I6" t="n">
         <v>36.0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0.6186425397125338</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.5071442654836678</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.8011315996906144</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.9404761904761905</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.7930258033106135</v>
-      </c>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -417,21 +367,11 @@
       <c r="I7" t="n">
         <v>36.0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0.6186425397125338</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.5071442654836678</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.8011315996906144</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9404761904761905</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.7930258033106135</v>
-      </c>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -461,21 +401,11 @@
       <c r="I8" t="n">
         <v>36.0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0.6125516459832303</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.4756394757126996</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.6005092459006902</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.5909090909090909</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.8289304949987176</v>
-      </c>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -505,21 +435,11 @@
       <c r="I9" t="n">
         <v>36.0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0.6125516459832303</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.4756394757126996</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.6005092459006902</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.5909090909090909</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.8289304949987176</v>
-      </c>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -549,21 +469,11 @@
       <c r="I10" t="n">
         <v>108.0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0.4909500044967308</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.3262178526420911</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.5440194280954945</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.7875</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.890632603406326</v>
-      </c>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -593,21 +503,11 @@
       <c r="I11" t="n">
         <v>108.0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0.4909500044967308</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.3262178526420911</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.5440194280954945</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7875</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.890632603406326</v>
-      </c>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -637,21 +537,11 @@
       <c r="I12" t="n">
         <v>108.0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0.43085321230472173</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2591103698593979</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.353700188388443</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.4272863568215892</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.9113061705751343</v>
-      </c>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -681,21 +571,11 @@
       <c r="I13" t="n">
         <v>108.0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0.43085321230472173</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.2591103698593979</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.353700188388443</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.4272863568215892</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.9113061705751343</v>
-      </c>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -725,21 +605,11 @@
       <c r="I14" t="n">
         <v>108.0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0.5127740156381667</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.34506887421553234</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.5698491771483958</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8051948051948052</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.9188860513194698</v>
-      </c>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -769,21 +639,11 @@
       <c r="I15" t="n">
         <v>108.0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0.5127740156381667</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.34506887421553234</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.5698491771483958</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.8051948051948052</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.9188860513194698</v>
-      </c>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -813,21 +673,11 @@
       <c r="I16" t="n">
         <v>108.0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0.45733230459864743</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2842922366073985</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.38559047078296116</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.4489402697495183</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.9362549800796812</v>
-      </c>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -857,21 +707,11 @@
       <c r="I17" t="n">
         <v>108.0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0.45733230459864743</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.2842922366073985</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.38559047078296116</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.4489402697495183</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.9362549800796812</v>
-      </c>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
